--- a/test_graph.xlsx
+++ b/test_graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\courseProgMethods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111F7D79-41DB-4EDF-B76F-1270D1D8DADF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2AC372-2969-459E-A723-551FA07E0F38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{3C7A0B3C-29B8-42F4-9A2B-C5ADBE32C942}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="1" xr2:uid="{3C7A0B3C-29B8-42F4-9A2B-C5ADBE32C942}"/>
   </bookViews>
   <sheets>
     <sheet name="Edges" sheetId="2" r:id="rId1"/>
@@ -408,11 +408,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C9ADB1-BEA8-4879-BF84-301B504B49C6}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -479,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBE2EBD-B42C-47B8-B1D3-06FF40A4537B}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
